--- a/medicine/Psychotrope/Osteria/Osteria.xlsx
+++ b/medicine/Psychotrope/Osteria/Osteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'osteria est un établissement public en Italie où l'on sert principalement du vin et, dans certains cas, à manger ou des en-cas.
 </t>
@@ -511,7 +523,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme osteria vient de l'ancien français oste ou hoste (hôte), qui dérive lui-même du latin hospes.
 Une des premières attestations du terme hostaria se trouve dans les capitulaires de la magistrature des « Signori della Notte » (seigneurs de la nuit) (it), qui, comme leur nom suggère, veillaient sur la tranquillité nocturne de la Venise du XIVe siècle.
@@ -545,7 +559,9 @@
           <t>Aspects sociologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'osteria était, jusqu'au milieu du XXe siècle, un lieu typique des rencontres du soir des personnes de sexe masculin. Ce lieu de rencontre et de socialisation a pendant longtemps offert un des rares moment de rencontre et d'échange d'idées, en plus de l'église et de la place de village.
 À partir de l'après-guerre et jusqu'à nos jours, la fréquentation de ces locaux n'a cessé de diminuer.
@@ -577,7 +593,9 @@
           <t>L'osteria la plus ancienne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À Ferrare, à côté de la cathédrale, on trouve l'osteria qui est attestée par des documents comme l'osteria la plus ancienne de la Renaissance, depuis 1435.
 L'Hostaria del Chiucchiolino existait donc déjà au XVe siècle (actuellement elle s'appelle Albrindisi). En sortant par la porte de l'église (ou en l'évitant), on s'engouffrait dans une ruelle adjacente (actuellement la via degli Adelardi) pour goûter du vin à bord d'une barque : l'osteria se trouvait effectivement dans une petite anse formée d'eau de pluie.
@@ -610,7 +628,9 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la zone des Castelli romani (latium), l'osteria prend souvent le nom de « Fraschetta (it) », lieux de restauration où l'on consomme principalement de la porchetta.
 </t>
